--- a/api/data/census001.xlsx
+++ b/api/data/census001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmsommerville/Desktop/projects/census-parser/api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF3BF7C-36D9-A04D-AAEF-EA77D4587E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0BA92-AE43-5D43-93F9-38C65B3FC812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17000" xr2:uid="{E35A9373-B523-B24C-954A-0BD3A1AF3802}"/>
   </bookViews>
